--- a/docs/Madden NFL/College Football/NCAA Football 14 Ratings.xlsx
+++ b/docs/Madden NFL/College Football/NCAA Football 14 Ratings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/30af24b3fe5d560e/Documentos/André/Games/Documents/Sports Games/Madden NFL/College Football/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42194" documentId="11_AD4DF034E34935FBC521DCD7BFD97F025BDEDD8C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DACBE580-606E-44D1-B4A9-ADD73FAF0AC6}"/>
+  <xr:revisionPtr revIDLastSave="42258" documentId="11_AD4DF034E34935FBC521DCD7BFD97F025BDEDD8C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DBC6AF87-8FF9-467E-B739-BA8AF7F90973}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="420" windowWidth="22956" windowHeight="10440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="144" yWindow="1152" windowWidth="22896" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -676,12 +676,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -881,7 +879,18 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
     </dxf>
@@ -903,18 +912,7 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
     </dxf>
@@ -946,7 +944,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EFE01862-7712-4B95-AB17-44312383458C}" name="Tabela1" displayName="Tabela1" ref="A1:G2" insertRow="1" totalsRowShown="0" dataDxfId="24">
   <autoFilter ref="A1:G2" xr:uid="{EFE01862-7712-4B95-AB17-44312383458C}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
-    <sortCondition descending="1" ref="B1:B2"/>
+    <sortCondition ref="A1:A2"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{45DD2C62-7C3E-42FD-99E1-1C11CC08F3BC}" name="Player" dataDxfId="23"/>
@@ -1292,8 +1290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1353,7 +1351,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D91B5C15-9235-4990-AD10-9915F8885DD9}">
   <dimension ref="A1:F127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+    <sheetView topLeftCell="A118" workbookViewId="0">
       <selection activeCell="B128" sqref="B128"/>
     </sheetView>
   </sheetViews>
@@ -2708,7 +2706,7 @@
       <c r="F67" s="1"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="1" t="s">
         <v>194</v>
       </c>
       <c r="B68" s="1" t="s">
@@ -2717,15 +2715,15 @@
       <c r="C68" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D68" s="4">
-        <f>COUNTIF(Tabela1[Team],Tabela2[[#This Row],[Team]])</f>
-        <v>0</v>
-      </c>
-      <c r="E68" s="3">
-        <f>Tabela2[[#This Row],[Number Players]]-Tabela2[[#This Row],[Total Players]]</f>
-        <v>0</v>
-      </c>
-      <c r="F68" s="3"/>
+      <c r="D68" s="1">
+        <f>COUNTIF(Tabela1[Team],Tabela2[[#This Row],[Team]])</f>
+        <v>0</v>
+      </c>
+      <c r="E68" s="1">
+        <f>Tabela2[[#This Row],[Number Players]]-Tabela2[[#This Row],[Total Players]]</f>
+        <v>0</v>
+      </c>
+      <c r="F68" s="1"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
@@ -3768,7 +3766,7 @@
       <c r="F120" s="1"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A121" s="3" t="s">
+      <c r="A121" s="1" t="s">
         <v>193</v>
       </c>
       <c r="B121" s="1" t="s">
@@ -3777,15 +3775,15 @@
       <c r="C121" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D121" s="4">
-        <f>COUNTIF(Tabela1[Team],Tabela2[[#This Row],[Team]])</f>
-        <v>0</v>
-      </c>
-      <c r="E121" s="3">
-        <f>Tabela2[[#This Row],[Number Players]]-Tabela2[[#This Row],[Total Players]]</f>
-        <v>0</v>
-      </c>
-      <c r="F121" s="3"/>
+      <c r="D121" s="1">
+        <f>COUNTIF(Tabela1[Team],Tabela2[[#This Row],[Team]])</f>
+        <v>0</v>
+      </c>
+      <c r="E121" s="1">
+        <f>Tabela2[[#This Row],[Number Players]]-Tabela2[[#This Row],[Total Players]]</f>
+        <v>0</v>
+      </c>
+      <c r="F121" s="1"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
@@ -3828,7 +3826,7 @@
       <c r="F123" s="1"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A124" s="3" t="s">
+      <c r="A124" s="1" t="s">
         <v>192</v>
       </c>
       <c r="B124" s="1" t="s">
@@ -3837,15 +3835,15 @@
       <c r="C124" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D124" s="4">
-        <f>COUNTIF(Tabela1[Team],Tabela2[[#This Row],[Team]])</f>
-        <v>0</v>
-      </c>
-      <c r="E124" s="3">
-        <f>Tabela2[[#This Row],[Number Players]]-Tabela2[[#This Row],[Total Players]]</f>
-        <v>0</v>
-      </c>
-      <c r="F124" s="3"/>
+      <c r="D124" s="1">
+        <f>COUNTIF(Tabela1[Team],Tabela2[[#This Row],[Team]])</f>
+        <v>0</v>
+      </c>
+      <c r="E124" s="1">
+        <f>Tabela2[[#This Row],[Number Players]]-Tabela2[[#This Row],[Total Players]]</f>
+        <v>0</v>
+      </c>
+      <c r="F124" s="1"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
